--- a/data/all/ALL_SEC_ID_TOTAL.xlsx
+++ b/data/all/ALL_SEC_ID_TOTAL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KSEK-KİML" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,234 +11,21 @@
   <definedNames>
     <definedName name="\m">#REF!</definedName>
     <definedName name="\s">#REF!</definedName>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'KSEK-KİML'!$A$3:$M$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KSEK-KİML'!$A$3:$M$55</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>INFORMATION ABOUT THE SECTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1-</t>
-  </si>
-  <si>
-    <t>SECTOR</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>ALL COMPANIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2-</t>
-  </si>
-  <si>
-    <t>YEAR - QUARTER</t>
-  </si>
-  <si>
-    <t>2019-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3-</t>
-  </si>
-  <si>
-    <t>TOTAL NUMBER OF THE  COMPANIES INCLUDED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4-</t>
-  </si>
-  <si>
-    <t>BREAKDOWN OF THE COMPANIES ACC. TO LEGAL STATUS</t>
-  </si>
-  <si>
-    <t>JOINT-STOCK COMPANY</t>
-  </si>
-  <si>
-    <t>LIMITED LIABILITY COMPANY</t>
-  </si>
-  <si>
-    <t>ORDINARY PARTNERSHIP</t>
-  </si>
-  <si>
-    <t>JOINT VENTURE</t>
-  </si>
-  <si>
-    <t>COOPERATIVE</t>
-  </si>
-  <si>
-    <t>OTHERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASSIFICATION BY SIZE </t>
-  </si>
-  <si>
-    <t>NUMBER of</t>
-  </si>
-  <si>
-    <t>NET TURNOVER</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>OWN FUNDS</t>
-  </si>
-  <si>
-    <t>COMPANIES</t>
-  </si>
-  <si>
-    <t>EMPLOYEES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>TRY THOUSANDS</t>
-  </si>
-  <si>
-    <t>MICRO</t>
-  </si>
-  <si>
-    <t>% 66.9</t>
-  </si>
-  <si>
-    <t>% 5.2</t>
-  </si>
-  <si>
-    <t>% 3.8</t>
-  </si>
-  <si>
-    <t>% 3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMALL </t>
-  </si>
-  <si>
-    <t>% 26.2</t>
-  </si>
-  <si>
-    <t>% 18.4</t>
-  </si>
-  <si>
-    <t>% 14.1</t>
-  </si>
-  <si>
-    <t>% 12.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDIUM </t>
-  </si>
-  <si>
-    <t>% 5.4</t>
-  </si>
-  <si>
-    <t>% 19.8</t>
-  </si>
-  <si>
-    <t>% 16.7</t>
-  </si>
-  <si>
-    <t>% 17.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARGE </t>
-  </si>
-  <si>
-    <t>% 1.4</t>
-  </si>
-  <si>
-    <t>% 56.6</t>
-  </si>
-  <si>
-    <t>% 65.4</t>
-  </si>
-  <si>
-    <t>% 67.3</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6-</t>
-  </si>
-  <si>
-    <t>CREDITS TO THE SECTOR (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>(12/31/.... )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  SHORT TERM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   LONG TERM</t>
-  </si>
-  <si>
-    <t>CREDITS IN CASH</t>
-  </si>
-  <si>
-    <t>-TRY</t>
-  </si>
-  <si>
-    <t>-FX</t>
-  </si>
-  <si>
-    <t>NON-CASH CREDITS</t>
-  </si>
-  <si>
-    <t>BAD DEBTS</t>
-  </si>
-  <si>
-    <t>BONDS</t>
-  </si>
-  <si>
-    <t>COMMERCIAL PAPERS</t>
-  </si>
-  <si>
-    <t>FUNDS USED FOR LEASING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7-</t>
-  </si>
-  <si>
-    <t>COMPANIES MAKING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>NUMBER OF COMPANIES</t>
-  </si>
-  <si>
-    <t>PROFIT</t>
-  </si>
-  <si>
-    <t>LOSS</t>
-  </si>
-  <si>
-    <t>BREAK EVEN</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt formatCode="0.0" numFmtId="164"/>
-    <numFmt formatCode="#,##0.0" numFmtId="165"/>
-    <numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" numFmtId="166"/>
-    <numFmt formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-" numFmtId="167"/>
-    <numFmt formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-" numFmtId="168"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -440,310 +227,379 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="168"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="127">
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="40" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="40" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="38" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="40" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="1" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="40" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="10" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="10" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="13" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="38" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1044,27 +900,29 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="11.25" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="11.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="2.25"/>
-    <col customWidth="1" max="2" min="2" style="13" width="20.625"/>
-    <col customWidth="1" max="3" min="3" style="13" width="3.25"/>
-    <col customWidth="1" max="12" min="4" style="13" width="10.625"/>
-    <col customWidth="1" max="13" min="13" style="13" width="1"/>
-    <col customWidth="1" max="14" min="14" style="13" width="0.25"/>
-    <col customWidth="1" max="15" min="15" style="13" width="6.75"/>
-    <col customWidth="1" hidden="1" max="16" min="16" style="13" width="0.75"/>
-    <col customWidth="1" hidden="1" max="17" min="17" style="13" width="7.75"/>
-    <col customWidth="1" hidden="1" max="18" min="18" style="13" width="12.25"/>
-    <col customWidth="1" hidden="1" max="19" min="19" style="13" width="9.75"/>
-    <col customWidth="1" hidden="1" max="20" min="20" style="13" width="12.25"/>
-    <col customWidth="1" hidden="1" max="16384" min="21" style="13" width="8.75"/>
+    <col width="2.25" customWidth="1" style="13" min="1" max="1"/>
+    <col width="20.625" customWidth="1" style="13" min="2" max="2"/>
+    <col width="3.25" customWidth="1" style="13" min="3" max="3"/>
+    <col width="13.125" customWidth="1" style="13" min="4" max="12"/>
+    <col width="1" customWidth="1" style="13" min="13" max="13"/>
+    <col width="0.25" customWidth="1" style="13" min="14" max="14"/>
+    <col width="6.75" customWidth="1" style="13" min="15" max="15"/>
+    <col hidden="1" width="0.75" customWidth="1" style="13" min="16" max="16"/>
+    <col hidden="1" width="7.75" customWidth="1" style="13" min="17" max="17"/>
+    <col hidden="1" width="12.25" customWidth="1" style="13" min="18" max="18"/>
+    <col hidden="1" width="9.75" customWidth="1" style="13" min="19" max="19"/>
+    <col hidden="1" width="12.25" customWidth="1" style="13" min="20" max="20"/>
+    <col hidden="1" width="8.75" customWidth="1" style="13" min="21" max="16384"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21">
+    <row r="3">
       <c r="A3" s="5" t="n"/>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="C3" s="6" t="n"/>
       <c r="D3" s="6" t="n"/>
@@ -1078,10 +936,12 @@
       <c r="L3" s="7" t="n"/>
       <c r="M3" s="10" t="n"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4">
       <c r="A4" s="11" t="n"/>
-      <c r="B4" s="12" t="s">
-        <v>1</v>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>INFORMATION ABOUT THE SECTOR</t>
+        </is>
       </c>
       <c r="C4" s="13" t="n"/>
       <c r="D4" s="13" t="n"/>
@@ -1095,7 +955,7 @@
       <c r="L4" s="36" t="n"/>
       <c r="M4" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="5.25" r="5" s="113" spans="1:21">
+    <row r="5" ht="5.25" customHeight="1" s="113">
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="13" t="n"/>
       <c r="C5" s="13" t="n"/>
@@ -1110,19 +970,27 @@
       <c r="L5" s="36" t="n"/>
       <c r="M5" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="6" s="113" spans="1:21">
-      <c r="A6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>3</v>
+    <row r="6" ht="15.75" customHeight="1" s="113">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1-</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>SECTOR</t>
+        </is>
       </c>
       <c r="C6" s="13" t="n"/>
-      <c r="D6" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>5</v>
+      <c r="D6" s="65" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="E6" s="20" t="inlineStr">
+        <is>
+          <t>ALL COMPANIES</t>
+        </is>
       </c>
       <c r="F6" s="65" t="n"/>
       <c r="G6" s="13" t="n"/>
@@ -1133,7 +1001,7 @@
       <c r="L6" s="36" t="n"/>
       <c r="M6" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="5.25" r="7" s="113" spans="1:21">
+    <row r="7" ht="5.25" customHeight="1" s="113">
       <c r="A7" s="11" t="n"/>
       <c r="B7" s="13" t="n"/>
       <c r="C7" s="13" t="n"/>
@@ -1148,19 +1016,27 @@
       <c r="L7" s="36" t="n"/>
       <c r="M7" s="18" t="n"/>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>7</v>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2-</t>
+        </is>
+      </c>
+      <c r="B8" s="12" t="inlineStr">
+        <is>
+          <t>YEAR - QUARTER</t>
+        </is>
       </c>
       <c r="C8" s="13" t="n"/>
-      <c r="D8" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>8</v>
+      <c r="D8" s="65" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
       </c>
       <c r="F8" s="65" t="n"/>
       <c r="G8" s="13" t="n"/>
@@ -1171,7 +1047,7 @@
       <c r="L8" s="36" t="n"/>
       <c r="M8" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="5.25" r="9" s="113" spans="1:21">
+    <row r="9" ht="5.25" customHeight="1" s="113">
       <c r="A9" s="11" t="n"/>
       <c r="B9" s="13" t="n"/>
       <c r="C9" s="13" t="n"/>
@@ -1186,19 +1062,25 @@
       <c r="L9" s="36" t="n"/>
       <c r="M9" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="25.5" r="10" s="113" spans="1:21">
-      <c r="A10" s="105" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="103" t="s">
-        <v>10</v>
+    <row r="10" ht="25.5" customHeight="1" s="113">
+      <c r="A10" s="105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3-</t>
+        </is>
+      </c>
+      <c r="B10" s="103" t="inlineStr">
+        <is>
+          <t>TOTAL NUMBER OF THE  COMPANIES INCLUDED</t>
+        </is>
       </c>
       <c r="C10" s="13" t="n"/>
-      <c r="D10" s="106" t="s">
-        <v>4</v>
+      <c r="D10" s="106" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="E10" s="104" t="n">
-        <v>730221</v>
+        <v>860382</v>
       </c>
       <c r="F10" s="65" t="n"/>
       <c r="G10" s="13" t="n"/>
@@ -1209,7 +1091,7 @@
       <c r="L10" s="36" t="n"/>
       <c r="M10" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="5.25" r="11" s="113" spans="1:21">
+    <row r="11" ht="5.25" customHeight="1" s="113">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="13" t="n"/>
       <c r="C11" s="13" t="n"/>
@@ -1224,12 +1106,16 @@
       <c r="L11" s="36" t="n"/>
       <c r="M11" s="18" t="n"/>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>12</v>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  4-</t>
+        </is>
+      </c>
+      <c r="B12" s="12" t="inlineStr">
+        <is>
+          <t>BREAKDOWN OF THE COMPANIES ACC. TO LEGAL STATUS</t>
+        </is>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -1243,54 +1129,69 @@
       <c r="L12" s="36" t="n"/>
       <c r="M12" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="13" s="113" spans="1:21">
+    <row r="13" ht="13.5" customHeight="1" s="113">
       <c r="A13" s="11" t="n"/>
-      <c r="B13" s="13" t="s">
-        <v>13</v>
+      <c r="B13" s="13" t="inlineStr">
+        <is>
+          <t>JOINT-STOCK COMPANY</t>
+        </is>
       </c>
       <c r="C13" s="20" t="n"/>
-      <c r="D13" s="61" t="s">
-        <v>4</v>
+      <c r="D13" s="61" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="E13" s="20" t="n">
-        <v>118497</v>
-      </c>
+        <v>134343</v>
+      </c>
+      <c r="F13" s="0" t="n"/>
       <c r="I13" s="20" t="n"/>
       <c r="K13" s="20" t="n"/>
       <c r="L13" s="36" t="n"/>
       <c r="M13" s="18" t="n"/>
       <c r="P13" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="14" s="113" spans="1:21">
+    <row r="14" ht="13.5" customHeight="1" s="113">
       <c r="A14" s="11" t="n"/>
-      <c r="B14" s="13" t="s">
-        <v>14</v>
+      <c r="B14" s="13" t="inlineStr">
+        <is>
+          <t>LIMITED LIABILITY COMPANY</t>
+        </is>
       </c>
       <c r="C14" s="13" t="n"/>
-      <c r="D14" s="61" t="s">
-        <v>4</v>
+      <c r="D14" s="61" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="E14" s="20" t="n">
-        <v>590510</v>
-      </c>
+        <v>702201</v>
+      </c>
+      <c r="F14" s="0" t="n"/>
       <c r="G14" s="13" t="n"/>
       <c r="I14" s="20" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="36" t="n"/>
       <c r="M14" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="15" s="113" spans="1:21">
+    <row r="15" ht="13.5" customHeight="1" s="113">
       <c r="A15" s="11" t="n"/>
-      <c r="B15" s="13" t="s">
-        <v>15</v>
+      <c r="B15" s="13" t="inlineStr">
+        <is>
+          <t>ORDINARY PARTNERSHIP</t>
+        </is>
       </c>
       <c r="C15" s="13" t="n"/>
-      <c r="D15" s="65" t="s">
-        <v>4</v>
+      <c r="D15" s="65" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="E15" s="20" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n"/>
       <c r="G15" s="13" t="n"/>
       <c r="H15" s="61" t="n"/>
       <c r="I15" s="20" t="n"/>
@@ -1299,18 +1200,23 @@
       <c r="L15" s="36" t="n"/>
       <c r="M15" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="16" s="113" spans="1:21">
+    <row r="16" ht="13.5" customHeight="1" s="113">
       <c r="A16" s="11" t="n"/>
-      <c r="B16" s="20" t="s">
-        <v>16</v>
+      <c r="B16" s="20" t="inlineStr">
+        <is>
+          <t>JOINT VENTURE</t>
+        </is>
       </c>
       <c r="C16" s="13" t="n"/>
-      <c r="D16" s="61" t="s">
-        <v>4</v>
+      <c r="D16" s="61" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="E16" s="20" t="n">
-        <v>3146</v>
-      </c>
+        <v>4259</v>
+      </c>
+      <c r="F16" s="0" t="n"/>
       <c r="G16" s="13" t="n"/>
       <c r="H16" s="61" t="n"/>
       <c r="I16" s="20" t="n"/>
@@ -1319,17 +1225,22 @@
       <c r="L16" s="36" t="n"/>
       <c r="M16" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="17" s="113" spans="1:21">
+    <row r="17" ht="13.5" customHeight="1" s="113">
       <c r="A17" s="11" t="n"/>
-      <c r="B17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>4</v>
+      <c r="B17" s="13" t="inlineStr">
+        <is>
+          <t>COOPERATIVE</t>
+        </is>
+      </c>
+      <c r="D17" s="16" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="E17" s="20" t="n">
-        <v>10743</v>
-      </c>
+        <v>11700</v>
+      </c>
+      <c r="F17" s="0" t="n"/>
       <c r="G17" s="13" t="n"/>
       <c r="H17" s="61" t="n"/>
       <c r="I17" s="20" t="n"/>
@@ -1338,18 +1249,23 @@
       <c r="L17" s="36" t="n"/>
       <c r="M17" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="18" s="113" spans="1:21">
+    <row r="18" ht="13.5" customHeight="1" s="113">
       <c r="A18" s="11" t="n"/>
-      <c r="B18" s="22" t="s">
-        <v>18</v>
+      <c r="B18" s="22" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
       </c>
       <c r="C18" s="22" t="n"/>
-      <c r="D18" s="96" t="s">
-        <v>4</v>
+      <c r="D18" s="96" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="E18" s="20" t="n">
-        <v>7324</v>
-      </c>
+        <v>7877</v>
+      </c>
+      <c r="F18" s="0" t="n"/>
       <c r="G18" s="13" t="n"/>
       <c r="H18" s="61" t="n"/>
       <c r="I18" s="20" t="n"/>
@@ -1358,7 +1274,7 @@
       <c r="L18" s="36" t="n"/>
       <c r="M18" s="18" t="n"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19">
       <c r="A19" s="11" t="n"/>
       <c r="B19" s="45" t="n"/>
       <c r="C19" s="45" t="n"/>
@@ -1373,7 +1289,7 @@
       <c r="L19" s="70" t="n"/>
       <c r="M19" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="20" s="113" spans="1:21">
+    <row r="20" ht="13.5" customHeight="1" s="113">
       <c r="A20" s="11" t="n"/>
       <c r="B20" s="45" t="n"/>
       <c r="C20" s="45" t="n"/>
@@ -1388,12 +1304,13 @@
       <c r="L20" s="70" t="n"/>
       <c r="M20" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="21" s="113" spans="1:21">
+    <row r="21" ht="12" customHeight="1" s="113">
       <c r="A21" s="11" t="n"/>
       <c r="B21" s="13" t="n"/>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="39" t="n"/>
       <c r="E21" s="20" t="n"/>
+      <c r="F21" s="0" t="n"/>
       <c r="G21" s="13" t="n"/>
       <c r="H21" s="13" t="n"/>
       <c r="I21" s="22" t="n"/>
@@ -1402,30 +1319,47 @@
       <c r="L21" s="36" t="n"/>
       <c r="M21" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="22" s="113" spans="1:21">
-      <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>20</v>
+    <row r="22" ht="15.75" customHeight="1" s="113">
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  5-</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLASSIFICATION BY SIZE </t>
+        </is>
       </c>
       <c r="C22" s="13" t="n"/>
-      <c r="D22" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>21</v>
+      <c r="D22" s="24" t="inlineStr">
+        <is>
+          <t>NUMBER of</t>
+        </is>
+      </c>
+      <c r="E22" s="24" t="inlineStr">
+        <is>
+          <t>NUMBER of</t>
+        </is>
       </c>
       <c r="F22" s="100" t="n"/>
-      <c r="G22" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="109" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="108" t="s">
-        <v>24</v>
-      </c>
+      <c r="G22" s="110" t="inlineStr">
+        <is>
+          <t>NET TURNOVER</t>
+        </is>
+      </c>
+      <c r="H22" s="114" t="n"/>
+      <c r="I22" s="109" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
+      </c>
+      <c r="J22" s="114" t="n"/>
+      <c r="K22" s="108" t="inlineStr">
+        <is>
+          <t>OWN FUNDS</t>
+        </is>
+      </c>
+      <c r="L22" s="114" t="n"/>
       <c r="M22" s="25" t="n"/>
       <c r="O22" s="23" t="n"/>
       <c r="P22" s="13" t="n"/>
@@ -1435,36 +1369,54 @@
       <c r="T22" s="50" t="n"/>
       <c r="U22" s="23" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="23" s="113" spans="1:21">
+    <row r="23" ht="15" customHeight="1" s="113">
       <c r="A23" s="11" t="n"/>
       <c r="B23" s="26" t="n"/>
       <c r="C23" s="27" t="n"/>
-      <c r="D23" s="110" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="69" t="s">
-        <v>27</v>
+      <c r="D23" s="110" t="inlineStr">
+        <is>
+          <t>COMPANIES</t>
+        </is>
+      </c>
+      <c r="E23" s="110" t="inlineStr">
+        <is>
+          <t>EMPLOYEES</t>
+        </is>
+      </c>
+      <c r="F23" s="69" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G23" s="107" t="inlineStr">
+        <is>
+          <t>TRY THOUSANDS</t>
+        </is>
+      </c>
+      <c r="H23" s="69" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I23" s="107" t="inlineStr">
+        <is>
+          <t>TRY THOUSANDS</t>
+        </is>
+      </c>
+      <c r="J23" s="69" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K23" s="107" t="inlineStr">
+        <is>
+          <t>TRY THOUSANDS</t>
+        </is>
+      </c>
+      <c r="L23" s="69" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
       </c>
       <c r="M23" s="30" t="n"/>
       <c r="N23" s="23" t="n"/>
@@ -1475,15 +1427,15 @@
       <c r="S23" s="110" t="n"/>
       <c r="T23" s="23" t="n"/>
     </row>
-    <row customHeight="1" ht="5.25" r="24" s="113" spans="1:21">
+    <row r="24" ht="5.25" customHeight="1" s="113">
       <c r="A24" s="11" t="n"/>
       <c r="B24" s="62" t="n"/>
       <c r="C24" s="12" t="n"/>
       <c r="D24" s="31" t="n"/>
       <c r="E24" s="84" t="n"/>
-      <c r="F24" s="114" t="n"/>
+      <c r="F24" s="115" t="n"/>
       <c r="G24" s="79" t="n"/>
-      <c r="H24" s="114" t="n"/>
+      <c r="H24" s="115" t="n"/>
       <c r="I24" s="81" t="n"/>
       <c r="J24" s="87" t="n"/>
       <c r="K24" s="83" t="n"/>
@@ -1496,38 +1448,48 @@
       <c r="R24" s="57" t="n"/>
       <c r="S24" s="57" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="25" s="113" spans="1:21">
+    <row r="25" ht="15" customHeight="1" s="113">
       <c r="A25" s="11" t="n"/>
-      <c r="B25" s="13" t="s">
-        <v>29</v>
+      <c r="B25" s="13" t="inlineStr">
+        <is>
+          <t>MICRO</t>
+        </is>
       </c>
       <c r="C25" s="12" t="n"/>
       <c r="D25" s="90" t="n">
-        <v>488859</v>
+        <v>648610</v>
       </c>
       <c r="E25" s="91" t="n">
-        <v>1112336</v>
-      </c>
-      <c r="F25" s="115" t="s">
-        <v>30</v>
+        <v>1395999</v>
+      </c>
+      <c r="F25" s="116" t="inlineStr">
+        <is>
+          <t>% 75.4</t>
+        </is>
       </c>
       <c r="G25" s="93" t="n">
-        <v>402632941.02465</v>
-      </c>
-      <c r="H25" s="91" t="s">
-        <v>31</v>
+        <v>511302878.416</v>
+      </c>
+      <c r="H25" s="91" t="inlineStr">
+        <is>
+          <t>% 5.5</t>
+        </is>
       </c>
       <c r="I25" s="94" t="n">
-        <v>327734250.7153199</v>
-      </c>
-      <c r="J25" s="95" t="s">
-        <v>32</v>
+        <v>1456668924.619</v>
+      </c>
+      <c r="J25" s="95" t="inlineStr">
+        <is>
+          <t>% 13.7</t>
+        </is>
       </c>
       <c r="K25" s="94" t="n">
-        <v>81000884.88540998</v>
-      </c>
-      <c r="L25" s="91" t="s">
-        <v>33</v>
+        <v>392312242.115</v>
+      </c>
+      <c r="L25" s="91" t="inlineStr">
+        <is>
+          <t>% 13.7</t>
+        </is>
       </c>
       <c r="M25" s="18" t="n"/>
       <c r="N25" s="57" t="n"/>
@@ -1537,38 +1499,48 @@
       <c r="R25" s="57" t="n"/>
       <c r="S25" s="57" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="26" s="113" spans="1:21">
+    <row r="26" ht="15" customHeight="1" s="113">
       <c r="A26" s="11" t="n"/>
-      <c r="B26" s="13" t="s">
-        <v>34</v>
+      <c r="B26" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SMALL </t>
+        </is>
       </c>
       <c r="C26" s="12" t="n"/>
       <c r="D26" s="90" t="n">
-        <v>191555</v>
+        <v>168218</v>
       </c>
       <c r="E26" s="91" t="n">
-        <v>2486489</v>
-      </c>
-      <c r="F26" s="115" t="s">
-        <v>35</v>
+        <v>2564078</v>
+      </c>
+      <c r="F26" s="116" t="inlineStr">
+        <is>
+          <t>% 19.6</t>
+        </is>
       </c>
       <c r="G26" s="93" t="n">
-        <v>1427664883.49041</v>
-      </c>
-      <c r="H26" s="91" t="s">
-        <v>36</v>
+        <v>1638250092.494</v>
+      </c>
+      <c r="H26" s="91" t="inlineStr">
+        <is>
+          <t>% 17.6</t>
+        </is>
       </c>
       <c r="I26" s="94" t="n">
-        <v>1211731292.13669</v>
-      </c>
-      <c r="J26" s="95" t="s">
-        <v>37</v>
+        <v>1786334040.768</v>
+      </c>
+      <c r="J26" s="95" t="inlineStr">
+        <is>
+          <t>% 16.9</t>
+        </is>
       </c>
       <c r="K26" s="94" t="n">
-        <v>310999119.5472301</v>
-      </c>
-      <c r="L26" s="91" t="s">
-        <v>38</v>
+        <v>472019319.239</v>
+      </c>
+      <c r="L26" s="91" t="inlineStr">
+        <is>
+          <t>% 16.5</t>
+        </is>
       </c>
       <c r="M26" s="18" t="n"/>
       <c r="N26" s="57" t="n"/>
@@ -1578,38 +1550,48 @@
       <c r="R26" s="57" t="n"/>
       <c r="S26" s="57" t="n"/>
     </row>
-    <row customHeight="1" ht="11.25" r="27" s="113" spans="1:21">
+    <row r="27" ht="11.25" customHeight="1" s="113">
       <c r="A27" s="11" t="n"/>
-      <c r="B27" s="13" t="s">
-        <v>39</v>
+      <c r="B27" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDIUM </t>
+        </is>
       </c>
       <c r="C27" s="12" t="n"/>
       <c r="D27" s="90" t="n">
-        <v>39733</v>
+        <v>35519</v>
       </c>
       <c r="E27" s="91" t="n">
-        <v>2561332</v>
-      </c>
-      <c r="F27" s="115" t="s">
-        <v>40</v>
+        <v>2599684</v>
+      </c>
+      <c r="F27" s="116" t="inlineStr">
+        <is>
+          <t>% 4.1</t>
+        </is>
       </c>
       <c r="G27" s="93" t="n">
-        <v>1541824216.5317</v>
-      </c>
-      <c r="H27" s="91" t="s">
-        <v>41</v>
+        <v>1940533003.266</v>
+      </c>
+      <c r="H27" s="91" t="inlineStr">
+        <is>
+          <t>% 20.8</t>
+        </is>
       </c>
       <c r="I27" s="94" t="n">
-        <v>1433368811.50908</v>
-      </c>
-      <c r="J27" s="95" t="s">
-        <v>42</v>
+        <v>1968500485.74</v>
+      </c>
+      <c r="J27" s="95" t="inlineStr">
+        <is>
+          <t>% 18.6</t>
+        </is>
       </c>
       <c r="K27" s="94" t="n">
-        <v>429950030.31578</v>
-      </c>
-      <c r="L27" s="91" t="s">
-        <v>43</v>
+        <v>551359073.992</v>
+      </c>
+      <c r="L27" s="91" t="inlineStr">
+        <is>
+          <t>% 19.3</t>
+        </is>
       </c>
       <c r="M27" s="18" t="n"/>
       <c r="N27" s="57" t="n"/>
@@ -1619,38 +1601,48 @@
       <c r="R27" s="57" t="n"/>
       <c r="S27" s="57" t="n"/>
     </row>
-    <row customHeight="1" ht="11.25" r="28" s="113" spans="1:21">
+    <row r="28" ht="11.25" customHeight="1" s="113">
       <c r="A28" s="11" t="n"/>
-      <c r="B28" s="13" t="s">
-        <v>44</v>
+      <c r="B28" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LARGE </t>
+        </is>
       </c>
       <c r="C28" s="12" t="n"/>
       <c r="D28" s="90" t="n">
-        <v>10074</v>
+        <v>8035</v>
       </c>
       <c r="E28" s="91" t="n">
-        <v>4606320</v>
-      </c>
-      <c r="F28" s="115" t="s">
-        <v>45</v>
+        <v>4603826</v>
+      </c>
+      <c r="F28" s="116" t="inlineStr">
+        <is>
+          <t>% 0.9</t>
+        </is>
       </c>
       <c r="G28" s="93" t="n">
-        <v>4406516018.65705</v>
-      </c>
-      <c r="H28" s="91" t="s">
-        <v>46</v>
+        <v>5226683583.775</v>
+      </c>
+      <c r="H28" s="91" t="inlineStr">
+        <is>
+          <t>% 56.1</t>
+        </is>
       </c>
       <c r="I28" s="94" t="n">
-        <v>5618280597.77674</v>
-      </c>
-      <c r="J28" s="95" t="s">
-        <v>47</v>
+        <v>5385179120.619</v>
+      </c>
+      <c r="J28" s="95" t="inlineStr">
+        <is>
+          <t>% 50.8</t>
+        </is>
       </c>
       <c r="K28" s="94" t="n">
-        <v>1695131010.28125</v>
-      </c>
-      <c r="L28" s="91" t="s">
-        <v>48</v>
+        <v>1441653983.554</v>
+      </c>
+      <c r="L28" s="91" t="inlineStr">
+        <is>
+          <t>% 50.5</t>
+        </is>
       </c>
       <c r="M28" s="18" t="n"/>
       <c r="N28" s="57" t="n"/>
@@ -1660,20 +1652,20 @@
       <c r="R28" s="57" t="n"/>
       <c r="S28" s="57" t="n"/>
     </row>
-    <row customHeight="1" ht="7.5" r="29" s="113" spans="1:21">
+    <row r="29" ht="7.5" customHeight="1" s="113">
       <c r="A29" s="11" t="n"/>
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="52" t="n"/>
       <c r="D29" s="74" t="n"/>
       <c r="E29" s="85" t="n"/>
-      <c r="F29" s="116" t="n"/>
+      <c r="F29" s="117" t="n"/>
       <c r="G29" s="80" t="n"/>
       <c r="H29" s="86" t="n"/>
       <c r="I29" s="82" t="n"/>
       <c r="J29" s="86" t="n"/>
       <c r="K29" s="82" t="n"/>
       <c r="L29" s="89" t="n"/>
-      <c r="M29" s="117" t="n"/>
+      <c r="M29" s="118" t="n"/>
       <c r="N29" s="57" t="n"/>
       <c r="O29" s="57" t="n"/>
       <c r="P29" s="57" t="n"/>
@@ -1681,33 +1673,35 @@
       <c r="R29" s="57" t="n"/>
       <c r="S29" s="57" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="30" s="113" spans="1:21">
+    <row r="30" ht="12.75" customHeight="1" s="113">
       <c r="A30" s="11" t="n"/>
-      <c r="B30" s="56" t="s">
-        <v>49</v>
+      <c r="B30" s="56" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
       </c>
       <c r="C30" s="52" t="n"/>
       <c r="D30" s="33" t="n">
-        <v>730221</v>
+        <v>860382</v>
       </c>
       <c r="E30" s="33" t="n">
-        <v>10766477</v>
-      </c>
-      <c r="F30" s="118" t="n"/>
-      <c r="G30" s="119" t="n">
-        <v>7778638059.703811</v>
-      </c>
-      <c r="H30" s="118" t="n"/>
-      <c r="I30" s="119" t="n">
-        <v>8591114952.137829</v>
-      </c>
-      <c r="J30" s="119" t="n"/>
-      <c r="K30" s="118" t="n">
-        <v>2517081045.02967</v>
-      </c>
-      <c r="L30" s="119" t="n"/>
-      <c r="M30" s="120" t="n"/>
-      <c r="N30" s="121" t="n"/>
+        <v>11163587</v>
+      </c>
+      <c r="F30" s="119" t="n"/>
+      <c r="G30" s="120" t="n">
+        <v>9316769557.951</v>
+      </c>
+      <c r="H30" s="119" t="n"/>
+      <c r="I30" s="120" t="n">
+        <v>10596682571.746</v>
+      </c>
+      <c r="J30" s="120" t="n"/>
+      <c r="K30" s="119" t="n">
+        <v>2857344618.9</v>
+      </c>
+      <c r="L30" s="120" t="n"/>
+      <c r="M30" s="121" t="n"/>
+      <c r="N30" s="122" t="n"/>
       <c r="O30" s="57" t="n"/>
       <c r="P30" s="57" t="n"/>
       <c r="Q30" s="57" t="n"/>
@@ -1715,79 +1709,109 @@
       <c r="S30" s="57" t="n"/>
       <c r="T30" s="57" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="31" s="113" spans="1:21">
+    <row r="31" ht="14.25" customHeight="1" s="113">
       <c r="A31" s="11" t="n"/>
       <c r="B31" s="52" t="n"/>
       <c r="C31" s="52" t="n"/>
       <c r="D31" s="33" t="n"/>
-      <c r="E31" s="119" t="n"/>
-      <c r="F31" s="119" t="n"/>
-      <c r="G31" s="119" t="n"/>
-      <c r="H31" s="119" t="n"/>
-      <c r="I31" s="119" t="n"/>
-      <c r="J31" s="119" t="n"/>
-      <c r="K31" s="118" t="n"/>
-      <c r="L31" s="119" t="n"/>
-      <c r="M31" s="120" t="n"/>
-      <c r="N31" s="121" t="n"/>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>51</v>
+      <c r="E31" s="120" t="n"/>
+      <c r="F31" s="120" t="n"/>
+      <c r="G31" s="120" t="n"/>
+      <c r="H31" s="120" t="n"/>
+      <c r="I31" s="120" t="n"/>
+      <c r="J31" s="120" t="n"/>
+      <c r="K31" s="119" t="n"/>
+      <c r="L31" s="120" t="n"/>
+      <c r="M31" s="121" t="n"/>
+      <c r="N31" s="122" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  6-</t>
+        </is>
+      </c>
+      <c r="B32" s="12" t="inlineStr">
+        <is>
+          <t>CREDITS TO THE SECTOR (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C32" s="12" t="n"/>
       <c r="M32" s="18" t="n"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33">
       <c r="A33" s="11" t="n"/>
-      <c r="B33" s="98" t="s">
-        <v>52</v>
+      <c r="B33" s="98" t="inlineStr">
+        <is>
+          <t>(12/31/.... )</t>
+        </is>
       </c>
       <c r="C33" s="12" t="n"/>
       <c r="D33" s="111" t="n">
-        <v>2017</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="E33" s="114" t="n"/>
+      <c r="F33" s="114" t="n"/>
       <c r="G33" s="111" t="n">
-        <v>2018</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H33" s="114" t="n"/>
+      <c r="I33" s="114" t="n"/>
       <c r="J33" s="111" t="n">
-        <v>2019</v>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="K33" s="114" t="n"/>
+      <c r="L33" s="114" t="n"/>
       <c r="M33" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="26.25" r="34" s="113" spans="1:21">
+    <row r="34" ht="26.25" customHeight="1" s="113">
       <c r="A34" s="11" t="n"/>
       <c r="B34" s="27" t="n"/>
       <c r="C34" s="38" t="n"/>
-      <c r="D34" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="K34" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="L34" s="102" t="s">
-        <v>49</v>
+      <c r="D34" s="101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  SHORT TERM</t>
+        </is>
+      </c>
+      <c r="E34" s="101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   LONG TERM</t>
+        </is>
+      </c>
+      <c r="F34" s="102" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="G34" s="101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  SHORT TERM</t>
+        </is>
+      </c>
+      <c r="H34" s="101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   LONG TERM</t>
+        </is>
+      </c>
+      <c r="I34" s="102" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="J34" s="101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  SHORT TERM</t>
+        </is>
+      </c>
+      <c r="K34" s="101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   LONG TERM</t>
+        </is>
+      </c>
+      <c r="L34" s="102" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
       </c>
       <c r="M34" s="18" t="n"/>
       <c r="O34" s="59" t="n"/>
@@ -1797,540 +1821,570 @@
       <c r="S34" s="60" t="n"/>
       <c r="T34" s="58" t="n"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35">
       <c r="A35" s="11" t="n"/>
-      <c r="B35" s="12" t="s">
-        <v>55</v>
+      <c r="B35" s="12" t="inlineStr">
+        <is>
+          <t>CREDITS IN CASH</t>
+        </is>
       </c>
       <c r="C35" s="13" t="n"/>
-      <c r="D35" s="122" t="n">
-        <v>409351070.345</v>
-      </c>
-      <c r="E35" s="122" t="n">
-        <v>1128790937.061</v>
-      </c>
-      <c r="F35" s="122" t="n">
-        <v>1538142007.406</v>
-      </c>
-      <c r="G35" s="122" t="n">
-        <v>489684547.052</v>
-      </c>
-      <c r="H35" s="122" t="n">
-        <v>1342209434.395</v>
-      </c>
-      <c r="I35" s="122" t="n">
-        <v>1831893981.447</v>
-      </c>
-      <c r="J35" s="122" t="n">
-        <v>517541034.288</v>
-      </c>
-      <c r="K35" s="122" t="n">
-        <v>1414741672.973</v>
-      </c>
-      <c r="L35" s="122" t="n">
-        <v>1932282707.261</v>
+      <c r="D35" s="123" t="n">
+        <v>744426013.987</v>
+      </c>
+      <c r="E35" s="123" t="n">
+        <v>1105580490.037</v>
+      </c>
+      <c r="F35" s="123" t="n">
+        <v>1850006504.024</v>
+      </c>
+      <c r="G35" s="123" t="n">
+        <v>781082816.059</v>
+      </c>
+      <c r="H35" s="123" t="n">
+        <v>1171709094.609</v>
+      </c>
+      <c r="I35" s="123" t="n">
+        <v>1952791910.668</v>
+      </c>
+      <c r="J35" s="123" t="n">
+        <v>1064031400.921</v>
+      </c>
+      <c r="K35" s="123" t="n">
+        <v>1499801237.462</v>
+      </c>
+      <c r="L35" s="123" t="n">
+        <v>2563832638.383</v>
       </c>
       <c r="M35" s="18" t="n"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36">
       <c r="A36" s="11" t="n"/>
-      <c r="B36" s="99" t="s">
-        <v>56</v>
+      <c r="B36" s="99" t="inlineStr">
+        <is>
+          <t>-TRY</t>
+        </is>
       </c>
       <c r="C36" s="13" t="n"/>
-      <c r="D36" s="123" t="n">
-        <v>293683770.045</v>
-      </c>
-      <c r="E36" s="123" t="n">
-        <v>408985614.134</v>
-      </c>
-      <c r="F36" s="123" t="n">
-        <v>702669384.179</v>
-      </c>
-      <c r="G36" s="123" t="n">
-        <v>295607068.607</v>
-      </c>
-      <c r="H36" s="123" t="n">
-        <v>383027510.264</v>
-      </c>
-      <c r="I36" s="123" t="n">
-        <v>678634578.8710001</v>
-      </c>
-      <c r="J36" s="123" t="n">
-        <v>288607224.096</v>
-      </c>
-      <c r="K36" s="123" t="n">
-        <v>434792509.586</v>
-      </c>
-      <c r="L36" s="123" t="n">
-        <v>723399733.682</v>
+      <c r="D36" s="124" t="n">
+        <v>414751651.179</v>
+      </c>
+      <c r="E36" s="124" t="n">
+        <v>280057187.603</v>
+      </c>
+      <c r="F36" s="124" t="n">
+        <v>694808838.7819999</v>
+      </c>
+      <c r="G36" s="124" t="n">
+        <v>424172464.833</v>
+      </c>
+      <c r="H36" s="124" t="n">
+        <v>315288618.015</v>
+      </c>
+      <c r="I36" s="124" t="n">
+        <v>739461082.848</v>
+      </c>
+      <c r="J36" s="124" t="n">
+        <v>616076660.192</v>
+      </c>
+      <c r="K36" s="124" t="n">
+        <v>488778068.05</v>
+      </c>
+      <c r="L36" s="124" t="n">
+        <v>1104854728.242</v>
       </c>
       <c r="M36" s="18" t="n"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37">
       <c r="A37" s="11" t="n"/>
-      <c r="B37" s="99" t="s">
-        <v>57</v>
+      <c r="B37" s="99" t="inlineStr">
+        <is>
+          <t>-FX</t>
+        </is>
       </c>
       <c r="C37" s="13" t="n"/>
-      <c r="D37" s="123" t="n">
-        <v>115667300.3</v>
-      </c>
-      <c r="E37" s="123" t="n">
-        <v>719805322.927</v>
-      </c>
-      <c r="F37" s="123" t="n">
-        <v>835472623.227</v>
-      </c>
-      <c r="G37" s="123" t="n">
-        <v>194077478.445</v>
-      </c>
-      <c r="H37" s="123" t="n">
-        <v>959181924.131</v>
-      </c>
-      <c r="I37" s="123" t="n">
-        <v>1153259402.576</v>
-      </c>
-      <c r="J37" s="123" t="n">
-        <v>228933810.192</v>
-      </c>
-      <c r="K37" s="123" t="n">
-        <v>979949163.387</v>
-      </c>
-      <c r="L37" s="123" t="n">
-        <v>1208882973.579</v>
+      <c r="D37" s="124" t="n">
+        <v>329674362.808</v>
+      </c>
+      <c r="E37" s="124" t="n">
+        <v>825523302.434</v>
+      </c>
+      <c r="F37" s="124" t="n">
+        <v>1155197665.242</v>
+      </c>
+      <c r="G37" s="124" t="n">
+        <v>356910351.226</v>
+      </c>
+      <c r="H37" s="124" t="n">
+        <v>856420476.594</v>
+      </c>
+      <c r="I37" s="124" t="n">
+        <v>1213330827.82</v>
+      </c>
+      <c r="J37" s="124" t="n">
+        <v>447954740.729</v>
+      </c>
+      <c r="K37" s="124" t="n">
+        <v>1011023169.412</v>
+      </c>
+      <c r="L37" s="124" t="n">
+        <v>1458977910.141</v>
       </c>
       <c r="M37" s="18" t="n"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38">
       <c r="A38" s="11" t="n"/>
-      <c r="B38" s="12" t="s">
-        <v>58</v>
+      <c r="B38" s="12" t="inlineStr">
+        <is>
+          <t>NON-CASH CREDITS</t>
+        </is>
       </c>
       <c r="C38" s="13" t="n"/>
-      <c r="D38" s="122" t="n">
-        <v>298424186.393</v>
-      </c>
-      <c r="E38" s="122" t="n">
-        <v>388240770.96</v>
-      </c>
-      <c r="F38" s="124" t="n">
-        <v>686664957.353</v>
-      </c>
-      <c r="G38" s="122" t="n">
-        <v>371009732.991</v>
-      </c>
-      <c r="H38" s="122" t="n">
-        <v>438494215.698</v>
-      </c>
-      <c r="I38" s="124" t="n">
-        <v>809503948.689</v>
-      </c>
-      <c r="J38" s="122" t="n">
-        <v>354604387.804</v>
-      </c>
-      <c r="K38" s="122" t="n">
-        <v>314079212.697</v>
-      </c>
-      <c r="L38" s="124" t="n">
-        <v>668683600.501</v>
+      <c r="D38" s="123" t="n">
+        <v>527859798.948</v>
+      </c>
+      <c r="E38" s="123" t="n">
+        <v>289344389.346</v>
+      </c>
+      <c r="F38" s="125" t="n">
+        <v>817204188.294</v>
+      </c>
+      <c r="G38" s="123" t="n">
+        <v>463572398.267</v>
+      </c>
+      <c r="H38" s="123" t="n">
+        <v>211986117.837</v>
+      </c>
+      <c r="I38" s="125" t="n">
+        <v>675558516.104</v>
+      </c>
+      <c r="J38" s="123" t="n">
+        <v>570813325.96</v>
+      </c>
+      <c r="K38" s="123" t="n">
+        <v>275048259.22</v>
+      </c>
+      <c r="L38" s="125" t="n">
+        <v>845861585.1799999</v>
       </c>
       <c r="M38" s="18" t="n"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39">
       <c r="A39" s="11" t="n"/>
-      <c r="B39" s="99" t="s">
-        <v>56</v>
+      <c r="B39" s="99" t="inlineStr">
+        <is>
+          <t>-TRY</t>
+        </is>
       </c>
       <c r="C39" s="13" t="n"/>
-      <c r="D39" s="123" t="n">
-        <v>150390851.373</v>
-      </c>
-      <c r="E39" s="123" t="n">
-        <v>219999646.532</v>
-      </c>
-      <c r="F39" s="123" t="n">
-        <v>370390497.905</v>
-      </c>
-      <c r="G39" s="123" t="n">
-        <v>166561327.508</v>
-      </c>
-      <c r="H39" s="123" t="n">
-        <v>224008091.847</v>
-      </c>
-      <c r="I39" s="123" t="n">
-        <v>390569419.355</v>
-      </c>
-      <c r="J39" s="123" t="n">
-        <v>147069100.751</v>
-      </c>
-      <c r="K39" s="123" t="n">
-        <v>129338701.148</v>
-      </c>
-      <c r="L39" s="123" t="n">
-        <v>276407801.899</v>
+      <c r="D39" s="124" t="n">
+        <v>247981505.955</v>
+      </c>
+      <c r="E39" s="124" t="n">
+        <v>146216265.327</v>
+      </c>
+      <c r="F39" s="124" t="n">
+        <v>394197771.282</v>
+      </c>
+      <c r="G39" s="124" t="n">
+        <v>188182993.467</v>
+      </c>
+      <c r="H39" s="124" t="n">
+        <v>91961535.19499999</v>
+      </c>
+      <c r="I39" s="124" t="n">
+        <v>280144528.662</v>
+      </c>
+      <c r="J39" s="124" t="n">
+        <v>237103120.423</v>
+      </c>
+      <c r="K39" s="124" t="n">
+        <v>110373050.293</v>
+      </c>
+      <c r="L39" s="124" t="n">
+        <v>347476170.716</v>
       </c>
       <c r="M39" s="18" t="n"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40">
       <c r="A40" s="11" t="n"/>
-      <c r="B40" s="99" t="s">
-        <v>57</v>
+      <c r="B40" s="99" t="inlineStr">
+        <is>
+          <t>-FX</t>
+        </is>
       </c>
       <c r="C40" s="13" t="n"/>
-      <c r="D40" s="123" t="n">
-        <v>148033335.02</v>
-      </c>
-      <c r="E40" s="123" t="n">
-        <v>168241124.428</v>
-      </c>
-      <c r="F40" s="123" t="n">
-        <v>316274459.448</v>
-      </c>
-      <c r="G40" s="123" t="n">
-        <v>204448405.483</v>
-      </c>
-      <c r="H40" s="123" t="n">
-        <v>214486123.851</v>
-      </c>
-      <c r="I40" s="123" t="n">
-        <v>418934529.334</v>
-      </c>
-      <c r="J40" s="123" t="n">
-        <v>207535287.053</v>
-      </c>
-      <c r="K40" s="123" t="n">
-        <v>184740511.549</v>
-      </c>
-      <c r="L40" s="123" t="n">
-        <v>392275798.602</v>
+      <c r="D40" s="124" t="n">
+        <v>279878292.993</v>
+      </c>
+      <c r="E40" s="124" t="n">
+        <v>143128124.019</v>
+      </c>
+      <c r="F40" s="124" t="n">
+        <v>423006417.012</v>
+      </c>
+      <c r="G40" s="124" t="n">
+        <v>275389404.8</v>
+      </c>
+      <c r="H40" s="124" t="n">
+        <v>120024582.642</v>
+      </c>
+      <c r="I40" s="124" t="n">
+        <v>395413987.442</v>
+      </c>
+      <c r="J40" s="124" t="n">
+        <v>333710205.537</v>
+      </c>
+      <c r="K40" s="124" t="n">
+        <v>164675208.927</v>
+      </c>
+      <c r="L40" s="124" t="n">
+        <v>498385414.464</v>
       </c>
       <c r="M40" s="18" t="n"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41">
       <c r="A41" s="11" t="n"/>
-      <c r="B41" s="12" t="s">
-        <v>59</v>
+      <c r="B41" s="12" t="inlineStr">
+        <is>
+          <t>BAD DEBTS</t>
+        </is>
       </c>
       <c r="C41" s="13" t="n"/>
-      <c r="D41" s="122" t="n">
-        <v>38187103.528</v>
-      </c>
-      <c r="E41" s="122" t="n">
+      <c r="D41" s="123" t="n">
+        <v>64719316.3</v>
+      </c>
+      <c r="E41" s="123" t="n">
         <v>0</v>
       </c>
-      <c r="F41" s="124" t="n">
-        <v>38187103.528</v>
-      </c>
-      <c r="G41" s="122" t="n">
-        <v>57631443.229</v>
-      </c>
-      <c r="H41" s="122" t="n">
+      <c r="F41" s="125" t="n">
+        <v>64719316.3</v>
+      </c>
+      <c r="G41" s="123" t="n">
+        <v>115724948.065</v>
+      </c>
+      <c r="H41" s="123" t="n">
         <v>0</v>
       </c>
-      <c r="I41" s="124" t="n">
-        <v>57631443.229</v>
-      </c>
-      <c r="J41" s="122" t="n">
-        <v>105637802.499</v>
-      </c>
-      <c r="K41" s="122" t="n">
+      <c r="I41" s="125" t="n">
+        <v>115724948.065</v>
+      </c>
+      <c r="J41" s="123" t="n">
+        <v>119537568.242</v>
+      </c>
+      <c r="K41" s="123" t="n">
         <v>0</v>
       </c>
-      <c r="L41" s="124" t="n">
-        <v>105637802.499</v>
+      <c r="L41" s="125" t="n">
+        <v>119537568.242</v>
       </c>
       <c r="M41" s="18" t="n"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42">
       <c r="A42" s="11" t="n"/>
-      <c r="B42" s="99" t="s">
-        <v>56</v>
+      <c r="B42" s="99" t="inlineStr">
+        <is>
+          <t>-TRY</t>
+        </is>
       </c>
       <c r="C42" s="13" t="n"/>
-      <c r="D42" s="123" t="n">
-        <v>36463141.572</v>
-      </c>
-      <c r="E42" s="123" t="n">
+      <c r="D42" s="124" t="n">
+        <v>56696076.195</v>
+      </c>
+      <c r="E42" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="F42" s="123" t="n">
-        <v>36463141.572</v>
-      </c>
-      <c r="G42" s="123" t="n">
-        <v>49741602.306</v>
-      </c>
-      <c r="H42" s="123" t="n">
+      <c r="F42" s="124" t="n">
+        <v>56696076.195</v>
+      </c>
+      <c r="G42" s="124" t="n">
+        <v>103702229.47</v>
+      </c>
+      <c r="H42" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="I42" s="123" t="n">
-        <v>49741602.306</v>
-      </c>
-      <c r="J42" s="123" t="n">
-        <v>93937044.646</v>
-      </c>
-      <c r="K42" s="123" t="n">
+      <c r="I42" s="124" t="n">
+        <v>103702229.47</v>
+      </c>
+      <c r="J42" s="124" t="n">
+        <v>102348666.916</v>
+      </c>
+      <c r="K42" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="L42" s="123" t="n">
-        <v>93937044.646</v>
+      <c r="L42" s="124" t="n">
+        <v>102348666.916</v>
       </c>
       <c r="M42" s="18" t="n"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43">
       <c r="A43" s="11" t="n"/>
-      <c r="B43" s="99" t="s">
-        <v>57</v>
+      <c r="B43" s="99" t="inlineStr">
+        <is>
+          <t>-FX</t>
+        </is>
       </c>
       <c r="C43" s="13" t="n"/>
-      <c r="D43" s="123" t="n">
-        <v>1723961.956</v>
-      </c>
-      <c r="E43" s="123" t="n">
+      <c r="D43" s="124" t="n">
+        <v>8023240.105</v>
+      </c>
+      <c r="E43" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="F43" s="123" t="n">
-        <v>1723961.956</v>
-      </c>
-      <c r="G43" s="123" t="n">
-        <v>7889840.923</v>
-      </c>
-      <c r="H43" s="123" t="n">
+      <c r="F43" s="124" t="n">
+        <v>8023240.105</v>
+      </c>
+      <c r="G43" s="124" t="n">
+        <v>12022718.595</v>
+      </c>
+      <c r="H43" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="I43" s="123" t="n">
-        <v>7889840.923</v>
-      </c>
-      <c r="J43" s="123" t="n">
-        <v>11700757.853</v>
-      </c>
-      <c r="K43" s="123" t="n">
+      <c r="I43" s="124" t="n">
+        <v>12022718.595</v>
+      </c>
+      <c r="J43" s="124" t="n">
+        <v>17188901.326</v>
+      </c>
+      <c r="K43" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="L43" s="123" t="n">
-        <v>11700757.853</v>
+      <c r="L43" s="124" t="n">
+        <v>17188901.326</v>
       </c>
       <c r="M43" s="18" t="n"/>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44">
       <c r="A44" s="11" t="n"/>
-      <c r="B44" s="12" t="s">
-        <v>60</v>
+      <c r="B44" s="12" t="inlineStr">
+        <is>
+          <t>BONDS</t>
+        </is>
       </c>
       <c r="C44" s="13" t="n"/>
-      <c r="D44" s="122" t="n">
-        <v>61440</v>
-      </c>
-      <c r="E44" s="122" t="n">
-        <v>8109795.99</v>
-      </c>
-      <c r="F44" s="124" t="n">
-        <v>8171235.99</v>
-      </c>
-      <c r="G44" s="122" t="n">
-        <v>66497</v>
-      </c>
-      <c r="H44" s="122" t="n">
-        <v>7947259.255</v>
-      </c>
-      <c r="I44" s="124" t="n">
+      <c r="D44" s="123" t="n">
+        <v>3519635.268</v>
+      </c>
+      <c r="E44" s="123" t="n">
+        <v>4494120.987</v>
+      </c>
+      <c r="F44" s="125" t="n">
         <v>8013756.255</v>
       </c>
-      <c r="J44" s="122" t="n">
-        <v>50000</v>
-      </c>
-      <c r="K44" s="122" t="n">
-        <v>9323756.584000001</v>
-      </c>
-      <c r="L44" s="124" t="n">
-        <v>9373756.584000001</v>
+      <c r="G44" s="123" t="n">
+        <v>5532013.063</v>
+      </c>
+      <c r="H44" s="123" t="n">
+        <v>3869143.511</v>
+      </c>
+      <c r="I44" s="125" t="n">
+        <v>9401156.573999999</v>
+      </c>
+      <c r="J44" s="123" t="n">
+        <v>7128032.457</v>
+      </c>
+      <c r="K44" s="123" t="n">
+        <v>3244913.867</v>
+      </c>
+      <c r="L44" s="125" t="n">
+        <v>10372946.324</v>
       </c>
       <c r="M44" s="18" t="n"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45">
       <c r="A45" s="11" t="n"/>
-      <c r="B45" s="12" t="s">
-        <v>61</v>
+      <c r="B45" s="12" t="inlineStr">
+        <is>
+          <t>COMMERCIAL PAPERS</t>
+        </is>
       </c>
       <c r="C45" s="13" t="n"/>
-      <c r="D45" s="122" t="n">
+      <c r="D45" s="123" t="n">
         <v>0</v>
       </c>
-      <c r="E45" s="122" t="n">
+      <c r="E45" s="123" t="n">
         <v>0</v>
       </c>
-      <c r="F45" s="124" t="n">
+      <c r="F45" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="G45" s="122" t="n">
+      <c r="G45" s="123" t="n">
         <v>0</v>
       </c>
-      <c r="H45" s="122" t="n">
+      <c r="H45" s="123" t="n">
         <v>0</v>
       </c>
-      <c r="I45" s="124" t="n">
+      <c r="I45" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="J45" s="122" t="n">
+      <c r="J45" s="123" t="n">
         <v>0</v>
       </c>
-      <c r="K45" s="122" t="n">
+      <c r="K45" s="123" t="n">
         <v>0</v>
       </c>
-      <c r="L45" s="124" t="n">
+      <c r="L45" s="125" t="n">
         <v>0</v>
       </c>
       <c r="M45" s="18" t="n"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46">
       <c r="A46" s="11" t="n"/>
-      <c r="B46" s="12" t="s">
-        <v>62</v>
+      <c r="B46" s="12" t="inlineStr">
+        <is>
+          <t>FUNDS USED FOR LEASING</t>
+        </is>
       </c>
       <c r="C46" s="13" t="n"/>
-      <c r="D46" s="122" t="n">
-        <v>11815751.334</v>
-      </c>
-      <c r="E46" s="122" t="n">
-        <v>33700166.695</v>
-      </c>
-      <c r="F46" s="124" t="n">
-        <v>45515918.029</v>
-      </c>
-      <c r="G46" s="122" t="n">
-        <v>15143145.417</v>
-      </c>
-      <c r="H46" s="122" t="n">
-        <v>38721927.356</v>
-      </c>
-      <c r="I46" s="124" t="n">
-        <v>53865072.773</v>
-      </c>
-      <c r="J46" s="122" t="n">
-        <v>13178451.762</v>
-      </c>
-      <c r="K46" s="122" t="n">
-        <v>35478433.281</v>
-      </c>
-      <c r="L46" s="124" t="n">
-        <v>48656885.043</v>
+      <c r="D46" s="123" t="n">
+        <v>27081796.626</v>
+      </c>
+      <c r="E46" s="123" t="n">
+        <v>27054918.389</v>
+      </c>
+      <c r="F46" s="125" t="n">
+        <v>54136715.015</v>
+      </c>
+      <c r="G46" s="123" t="n">
+        <v>23480200.466</v>
+      </c>
+      <c r="H46" s="123" t="n">
+        <v>25893028.088</v>
+      </c>
+      <c r="I46" s="125" t="n">
+        <v>49373228.554</v>
+      </c>
+      <c r="J46" s="123" t="n">
+        <v>28923821.337</v>
+      </c>
+      <c r="K46" s="123" t="n">
+        <v>32817031.966</v>
+      </c>
+      <c r="L46" s="125" t="n">
+        <v>61740853.303</v>
       </c>
       <c r="M46" s="18" t="n"/>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47">
       <c r="A47" s="11" t="n"/>
-      <c r="B47" s="99" t="s">
-        <v>56</v>
+      <c r="B47" s="99" t="inlineStr">
+        <is>
+          <t>-TRY</t>
+        </is>
       </c>
       <c r="C47" s="13" t="n"/>
-      <c r="D47" s="125" t="n">
-        <v>3502904.156</v>
-      </c>
-      <c r="E47" s="125" t="n">
-        <v>10097644.816</v>
-      </c>
-      <c r="F47" s="123" t="n">
-        <v>13600548.972</v>
-      </c>
-      <c r="G47" s="125" t="n">
-        <v>3924581.304</v>
-      </c>
-      <c r="H47" s="125" t="n">
-        <v>9727628.579</v>
-      </c>
-      <c r="I47" s="123" t="n">
-        <v>13652209.883</v>
-      </c>
-      <c r="J47" s="125" t="n">
-        <v>3621673.772</v>
-      </c>
-      <c r="K47" s="125" t="n">
-        <v>8694891.497</v>
-      </c>
-      <c r="L47" s="123" t="n">
-        <v>12316565.269</v>
+      <c r="D47" s="126" t="n">
+        <v>7068635.614</v>
+      </c>
+      <c r="E47" s="126" t="n">
+        <v>6643747.239</v>
+      </c>
+      <c r="F47" s="124" t="n">
+        <v>13712382.853</v>
+      </c>
+      <c r="G47" s="126" t="n">
+        <v>6351334.698</v>
+      </c>
+      <c r="H47" s="126" t="n">
+        <v>6071558.141</v>
+      </c>
+      <c r="I47" s="124" t="n">
+        <v>12422892.839</v>
+      </c>
+      <c r="J47" s="126" t="n">
+        <v>9678359.103</v>
+      </c>
+      <c r="K47" s="126" t="n">
+        <v>10566640.1</v>
+      </c>
+      <c r="L47" s="124" t="n">
+        <v>20244999.203</v>
       </c>
       <c r="M47" s="18" t="n"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48">
       <c r="A48" s="11" t="n"/>
-      <c r="B48" s="99" t="s">
-        <v>57</v>
+      <c r="B48" s="99" t="inlineStr">
+        <is>
+          <t>-FX</t>
+        </is>
       </c>
       <c r="C48" s="13" t="n"/>
-      <c r="D48" s="125" t="n">
-        <v>8312847.178</v>
-      </c>
-      <c r="E48" s="125" t="n">
-        <v>23602521.879</v>
-      </c>
-      <c r="F48" s="123" t="n">
-        <v>31915369.057</v>
-      </c>
-      <c r="G48" s="125" t="n">
-        <v>11218564.113</v>
-      </c>
-      <c r="H48" s="125" t="n">
-        <v>28994298.777</v>
-      </c>
-      <c r="I48" s="123" t="n">
-        <v>40212862.89</v>
-      </c>
-      <c r="J48" s="125" t="n">
-        <v>9556777.99</v>
-      </c>
-      <c r="K48" s="125" t="n">
-        <v>26783541.784</v>
-      </c>
-      <c r="L48" s="123" t="n">
-        <v>36340319.774</v>
+      <c r="D48" s="126" t="n">
+        <v>20013161.012</v>
+      </c>
+      <c r="E48" s="126" t="n">
+        <v>20411171.15</v>
+      </c>
+      <c r="F48" s="124" t="n">
+        <v>40424332.162</v>
+      </c>
+      <c r="G48" s="126" t="n">
+        <v>17128865.768</v>
+      </c>
+      <c r="H48" s="126" t="n">
+        <v>19821469.947</v>
+      </c>
+      <c r="I48" s="124" t="n">
+        <v>36950335.715</v>
+      </c>
+      <c r="J48" s="126" t="n">
+        <v>19245462.234</v>
+      </c>
+      <c r="K48" s="126" t="n">
+        <v>22250391.866</v>
+      </c>
+      <c r="L48" s="124" t="n">
+        <v>41495854.1</v>
       </c>
       <c r="M48" s="18" t="n"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49">
       <c r="A49" s="11" t="n"/>
-      <c r="B49" s="12" t="s">
-        <v>49</v>
+      <c r="B49" s="12" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
       </c>
       <c r="C49" s="13" t="n"/>
-      <c r="D49" s="122" t="n">
-        <v>757839551.6</v>
-      </c>
-      <c r="E49" s="122" t="n">
-        <v>1558841670.706</v>
-      </c>
-      <c r="F49" s="122" t="n">
-        <v>2316681222.306</v>
-      </c>
-      <c r="G49" s="122" t="n">
-        <v>933535365.689</v>
-      </c>
-      <c r="H49" s="122" t="n">
-        <v>1827372836.704</v>
-      </c>
-      <c r="I49" s="122" t="n">
-        <v>2760908202.393</v>
-      </c>
-      <c r="J49" s="122" t="n">
-        <v>991011676.353</v>
-      </c>
-      <c r="K49" s="122" t="n">
-        <v>1773623075.535</v>
-      </c>
-      <c r="L49" s="122" t="n">
-        <v>2764634751.888</v>
+      <c r="D49" s="123" t="n">
+        <v>1367606561.129</v>
+      </c>
+      <c r="E49" s="123" t="n">
+        <v>1426473918.759</v>
+      </c>
+      <c r="F49" s="123" t="n">
+        <v>2794080479.888</v>
+      </c>
+      <c r="G49" s="123" t="n">
+        <v>1389392375.92</v>
+      </c>
+      <c r="H49" s="123" t="n">
+        <v>1413457384.045</v>
+      </c>
+      <c r="I49" s="123" t="n">
+        <v>2802849759.965</v>
+      </c>
+      <c r="J49" s="123" t="n">
+        <v>1790434148.917</v>
+      </c>
+      <c r="K49" s="123" t="n">
+        <v>1810911442.515</v>
+      </c>
+      <c r="L49" s="123" t="n">
+        <v>3601345591.432</v>
       </c>
       <c r="M49" s="18" t="n"/>
       <c r="Q49" s="57" t="n"/>
       <c r="R49" s="57" t="n"/>
       <c r="T49" s="57" t="n"/>
     </row>
-    <row customHeight="1" ht="9.75" r="50" s="113" spans="1:21">
+    <row r="50" ht="9.75" customHeight="1" s="113">
       <c r="A50" s="11" t="n"/>
       <c r="B50" s="12" t="n"/>
       <c r="C50" s="13" t="n"/>
-      <c r="D50" s="118" t="n"/>
-      <c r="E50" s="118" t="n"/>
+      <c r="D50" s="119" t="n"/>
+      <c r="E50" s="119" t="n"/>
       <c r="F50" s="12" t="n"/>
       <c r="H50" s="36" t="n"/>
       <c r="I50" s="37" t="n"/>
@@ -2339,61 +2393,73 @@
       <c r="L50" s="36" t="n"/>
       <c r="M50" s="18" t="n"/>
     </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>64</v>
+    <row r="51">
+      <c r="A51" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  7-</t>
+        </is>
+      </c>
+      <c r="B51" s="12" t="inlineStr">
+        <is>
+          <t>COMPANIES MAKING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C51" s="12" t="n"/>
-      <c r="D51" s="42" t="s">
-        <v>65</v>
+      <c r="D51" s="42" t="inlineStr">
+        <is>
+          <t>NUMBER OF COMPANIES</t>
+        </is>
       </c>
       <c r="E51" s="43" t="n"/>
       <c r="F51" s="65" t="n"/>
       <c r="M51" s="40" t="n"/>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52">
       <c r="A52" s="11" t="n"/>
-      <c r="B52" s="22" t="s">
-        <v>66</v>
+      <c r="B52" s="22" t="inlineStr">
+        <is>
+          <t>PROFIT</t>
+        </is>
       </c>
       <c r="C52" s="13" t="n"/>
       <c r="D52" s="41" t="n">
-        <v>419966</v>
+        <v>459893</v>
       </c>
       <c r="E52" s="37" t="n"/>
       <c r="F52" s="65" t="n"/>
       <c r="M52" s="40" t="n"/>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53">
       <c r="A53" s="11" t="n"/>
-      <c r="B53" s="13" t="s">
-        <v>67</v>
+      <c r="B53" s="13" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
       </c>
       <c r="C53" s="13" t="n"/>
       <c r="D53" s="41" t="n">
-        <v>297567</v>
+        <v>372191</v>
       </c>
       <c r="E53" s="37" t="n"/>
       <c r="F53" s="65" t="n"/>
       <c r="M53" s="40" t="n"/>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54">
       <c r="A54" s="11" t="n"/>
-      <c r="B54" s="22" t="s">
-        <v>68</v>
+      <c r="B54" s="22" t="inlineStr">
+        <is>
+          <t>BREAK EVEN</t>
+        </is>
       </c>
       <c r="C54" s="13" t="n"/>
       <c r="D54" s="41" t="n">
-        <v>12688</v>
+        <v>28298</v>
       </c>
       <c r="E54" s="37" t="n"/>
       <c r="F54" s="65" t="n"/>
       <c r="M54" s="40" t="n"/>
     </row>
-    <row customHeight="1" ht="5.25" r="55" s="113" spans="1:21">
+    <row r="55" ht="5.25" customHeight="1" s="113">
       <c r="A55" s="44" t="n"/>
       <c r="B55" s="45" t="n"/>
       <c r="C55" s="45" t="n"/>
@@ -2408,28 +2474,28 @@
       <c r="L55" s="45" t="n"/>
       <c r="M55" s="48" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="57" s="113" spans="1:21">
+    <row r="57" ht="12.75" customHeight="1" s="113">
       <c r="A57" s="12" t="n"/>
       <c r="B57" s="49" t="n"/>
       <c r="C57" s="49" t="n"/>
       <c r="I57" s="39" t="n"/>
       <c r="P57" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="58" s="113" spans="1:21">
+    <row r="58" ht="12.75" customHeight="1" s="113">
       <c r="A58" s="12" t="n"/>
       <c r="B58" s="49" t="n"/>
       <c r="C58" s="49" t="n"/>
       <c r="I58" s="39" t="n"/>
       <c r="P58" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="59" s="113" spans="1:21">
+    <row r="59" ht="12.75" customHeight="1" s="113">
       <c r="A59" s="12" t="n"/>
       <c r="B59" s="49" t="n"/>
       <c r="C59" s="49" t="n"/>
       <c r="I59" s="39" t="n"/>
       <c r="P59" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="60" s="113" spans="1:21">
+    <row r="60" ht="12.75" customHeight="1" s="113">
       <c r="I60" s="39" t="n"/>
     </row>
   </sheetData>
@@ -2441,7 +2507,7 @@
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:L33"/>
   </mergeCells>
-  <pageMargins bottom="0.25" footer="0.19" header="0.17" left="0.64" right="0.27" top="0.38"/>
-  <pageSetup horizontalDpi="300" orientation="landscape" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.64" right="0.27" top="0.38" bottom="0.25" header="0.17" footer="0.19"/>
+  <pageSetup orientation="landscape" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>